--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -37515,12 +37515,12 @@
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10232,8 +10232,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10242,8 +10242,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -37505,24 +37505,24 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10206,8 +10206,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10216,8 +10216,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37476,24 +37476,24 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$D1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "multispecimen"</formula>
+      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -37476,22 +37476,22 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -37465,12 +37465,12 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -37475,12 +37475,12 @@
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -37465,12 +37465,12 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FCSFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FCSFileAnnotationTemplate.xlsx
@@ -10198,8 +10198,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10208,8 +10208,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37465,24 +37465,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
